--- a/data/topic_ids_v3.xlsx
+++ b/data/topic_ids_v3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darshan/Code/capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darshan/Code/capstone/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17829505-BA54-674D-AD8C-EFF5FA71135E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAA2041-61C7-D141-8A9F-3231FF6F9039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="3560" windowWidth="27240" windowHeight="16440" xr2:uid="{D9440E26-C594-174E-9B63-878DC898CA49}"/>
+    <workbookView xWindow="8160" yWindow="2140" windowWidth="27240" windowHeight="16440" xr2:uid="{D9440E26-C594-174E-9B63-878DC898CA49}"/>
   </bookViews>
   <sheets>
     <sheet name="topic_ids" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>key_name</t>
   </si>
@@ -117,18 +117,6 @@
   </si>
   <si>
     <t>Types of Visuals</t>
-  </si>
-  <si>
-    <t>Creating a Dashboard</t>
-  </si>
-  <si>
-    <t>Formatting data</t>
-  </si>
-  <si>
-    <t>Uploading data</t>
-  </si>
-  <si>
-    <t>Creating a story</t>
   </si>
   <si>
     <t>Tableau Prep Builder</t>
@@ -641,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{530F23A1-6A55-404B-B7DD-1CA37AED3A54}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,7 +854,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -874,7 +862,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -882,7 +870,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -890,7 +878,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -898,7 +886,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -906,7 +894,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -914,7 +902,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -922,7 +910,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -930,7 +918,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -938,7 +926,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -946,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -954,7 +942,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -962,7 +950,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -970,7 +958,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -978,7 +966,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -986,7 +974,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -994,7 +982,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -1002,7 +990,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -1010,7 +998,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -1018,7 +1006,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1026,7 +1014,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -1034,7 +1022,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1042,7 +1030,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1050,7 +1038,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1058,7 +1046,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1066,7 +1054,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1074,7 +1062,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1082,7 +1070,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1090,7 +1078,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1098,7 +1086,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1106,7 +1094,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1114,7 +1102,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1122,7 +1110,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1130,7 +1118,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1138,7 +1126,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1146,7 +1134,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1154,7 +1142,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,7 +1150,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,7 +1158,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1178,7 +1166,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1186,44 +1174,12 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>68</v>
-      </c>
-      <c r="B68">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>70</v>
-      </c>
-      <c r="B70">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
